--- a/CRUD.xlsx
+++ b/CRUD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aussc\OneDrive\Documents\GitHub\CMPG323-Project-4-37460366\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747741DF-3F2C-4D3A-9BBF-C2F88D508A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6B8EAE-22ED-4B1A-8ECF-DABF1160B454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="0" activeTab="1" xr2:uid="{0E20D94F-96DE-4967-B1D2-9A447885F34A}"/>
+    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="0" activeTab="0" xr2:uid="{0E20D94F-96DE-4967-B1D2-9A447885F34A}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Clients" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,1479 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:si>
+    <x:t>EditUrl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/f7ee3201-cbf0-4b00-bfdc-ee37493b4955</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/741ee2d4-354a-49c1-a6a7-00af4e266121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/57976622-a7ba-4f1f-a226-00d889b16983</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/57976622-a7ba-4f1f-a226-00d889b16983</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/a433b68b-2df2-43ec-837b-01ec72b99668</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/a433b68b-2df2-43ec-837b-01ec72b99668</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/dffc32d5-0031-4a74-ab4b-01f92f2cd369</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/dffc32d5-0031-4a74-ab4b-01f92f2cd369</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/adab78bd-d053-47ca-98f4-043e0407abf5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/adab78bd-d053-47ca-98f4-043e0407abf5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/e4a8b5b2-b2bf-4385-a23c-05b9b6682233</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/e4a8b5b2-b2bf-4385-a23c-05b9b6682233</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/e588ad12-3d0b-48a2-a1b0-0762eaff59d5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/e588ad12-3d0b-48a2-a1b0-0762eaff59d5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/941923ec-f7e9-4326-903f-07d22d1e3c97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/941923ec-f7e9-4326-903f-07d22d1e3c97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/e561a82e-650d-4543-96fa-08f6f7d7d65b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/e561a82e-650d-4543-96fa-08f6f7d7d65b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/10a3a59d-5238-4d23-a22e-0bd3bf0daf39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/10a3a59d-5238-4d23-a22e-0bd3bf0daf39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/b136919f-5382-47c7-a8a8-0d1709ffb0bb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/b136919f-5382-47c7-a8a8-0d1709ffb0bb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/e676fe64-74e2-4fc6-ae2b-0d813580ce4e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/e676fe64-74e2-4fc6-ae2b-0d813580ce4e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/817f0f66-88e1-49f1-876f-0d9e4f03ee5d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/817f0f66-88e1-49f1-876f-0d9e4f03ee5d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/773fca54-9c63-4f48-b2d7-0e1d9bfd9264</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/773fca54-9c63-4f48-b2d7-0e1d9bfd9264</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/18730bbf-70e4-4202-b007-0f0f28784ffd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/18730bbf-70e4-4202-b007-0f0f28784ffd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/d4a00452-4fce-4375-9ed4-1595cb31aae9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/d4a00452-4fce-4375-9ed4-1595cb31aae9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/e2e3e1a1-559c-40d3-ac13-16994ad70f98</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/e2e3e1a1-559c-40d3-ac13-16994ad70f98</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/2f8df67d-98d6-422e-aa6d-17f4d0284741</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/2f8df67d-98d6-422e-aa6d-17f4d0284741</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/5892f7a2-4b23-4b31-bd1d-1825fb551e3e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/5892f7a2-4b23-4b31-bd1d-1825fb551e3e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/bdb04153-924e-4ce3-b967-18926c491a67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/bdb04153-924e-4ce3-b967-18926c491a67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/ab1b1299-ae42-45c9-a716-189d599c09e0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/ab1b1299-ae42-45c9-a716-189d599c09e0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/91dedd3d-f11c-43fa-b555-18f06008e686</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/91dedd3d-f11c-43fa-b555-18f06008e686</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/eeeae838-2bfc-4c89-89d4-1959074d171a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/eeeae838-2bfc-4c89-89d4-1959074d171a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/e3b33cc1-587b-4496-9972-19786725b57a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/e3b33cc1-587b-4496-9972-19786725b57a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/cc29f115-85b1-4f64-88f2-19c4dfa92be9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/cc29f115-85b1-4f64-88f2-19c4dfa92be9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/e569c897-4ab4-4a6d-b50b-1a94d89188c2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/e569c897-4ab4-4a6d-b50b-1a94d89188c2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/f63d3f4e-f3af-4747-ad38-1bc5a6767183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/f63d3f4e-f3af-4747-ad38-1bc5a6767183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/51612eea-d9e1-4377-9e3c-1eab801013df</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/51612eea-d9e1-4377-9e3c-1eab801013df</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/015179f7-3aa3-40f7-841c-1eafa12d9cf5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/015179f7-3aa3-40f7-841c-1eafa12d9cf5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/9b4241a0-272e-4346-8574-1f2b28845bf0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/9b4241a0-272e-4346-8574-1f2b28845bf0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/515f3946-c28d-4a58-b228-20efdb32aa3b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/515f3946-c28d-4a58-b228-20efdb32aa3b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/7373af3a-6bd9-4db6-bf7d-2537aae2e6f9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/7373af3a-6bd9-4db6-bf7d-2537aae2e6f9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/2db68568-4b33-4f63-82f7-25548ab9b169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/2db68568-4b33-4f63-82f7-25548ab9b169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/4363d122-83a4-4ba5-9b75-26042e43b9bc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/4363d122-83a4-4ba5-9b75-26042e43b9bc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/9c5b5205-ab93-4a7d-896b-26edfdff4e0d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/9c5b5205-ab93-4a7d-896b-26edfdff4e0d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/981dd6c0-81c9-4b73-b336-28a7f41e62ed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/981dd6c0-81c9-4b73-b336-28a7f41e62ed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/04968c49-b8bf-479f-8d7f-2b2e791c6d39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/04968c49-b8bf-479f-8d7f-2b2e791c6d39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/4e21f658-ba25-4f6c-8a82-2c4242fb7304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/4e21f658-ba25-4f6c-8a82-2c4242fb7304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/2dc3d002-6582-4d0a-9b53-2c9a20c63d4b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/2dc3d002-6582-4d0a-9b53-2c9a20c63d4b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/c0a1f33b-0c4f-4f21-b138-2f44cde9809f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/c0a1f33b-0c4f-4f21-b138-2f44cde9809f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/fff0274f-c7b8-45eb-92d9-31216ee9d719</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/fff0274f-c7b8-45eb-92d9-31216ee9d719</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/e3dd9534-68ad-4598-acc5-3254cc33c59f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/e3dd9534-68ad-4598-acc5-3254cc33c59f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/3d0a3563-ab53-490d-8ad2-3476ef676e92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/3d0a3563-ab53-490d-8ad2-3476ef676e92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/35e908ca-da49-42fd-b944-352bc349bd64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/35e908ca-da49-42fd-b944-352bc349bd64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/d64d20d2-6357-4f5d-91b8-3542e0afcaee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/d64d20d2-6357-4f5d-91b8-3542e0afcaee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/ca7890f7-66a4-41e9-a370-3961043d456d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/ca7890f7-66a4-41e9-a370-3961043d456d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/586d746c-17a9-47db-9124-39e81800cb97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/586d746c-17a9-47db-9124-39e81800cb97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/70b58427-2dca-40ef-8d96-3b137c34d37b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/70b58427-2dca-40ef-8d96-3b137c34d37b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/0e72b686-5815-40f0-bb04-3bfde997a185</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/0e72b686-5815-40f0-bb04-3bfde997a185</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/5e7fa63b-a353-4377-bc25-3d303849c303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/5e7fa63b-a353-4377-bc25-3d303849c303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/d0304520-6c9a-484c-8599-3d8284ee79d0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/d0304520-6c9a-484c-8599-3d8284ee79d0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/133a6e1b-778a-47dd-8351-3f5008d47348</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/133a6e1b-778a-47dd-8351-3f5008d47348</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/40c5831d-68e0-4cb9-a46e-3fab721fc683</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/40c5831d-68e0-4cb9-a46e-3fab721fc683</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/14141252-1d74-4b3a-b04a-3fc7f8415ffb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/14141252-1d74-4b3a-b04a-3fc7f8415ffb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/47e1bfe7-6440-421c-829f-41597be17c52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/47e1bfe7-6440-421c-829f-41597be17c52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/52bcc1cc-66d0-4571-9f3e-42a807634b85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/52bcc1cc-66d0-4571-9f3e-42a807634b85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/2d227d7a-34e0-45fd-b46f-46c3e2b8c71d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/2d227d7a-34e0-45fd-b46f-46c3e2b8c71d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/bf2a5ad7-ac6c-4a9d-aae7-4821c29388ac</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/bf2a5ad7-ac6c-4a9d-aae7-4821c29388ac</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/527ec300-9356-461e-865a-489adfdeaa54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/527ec300-9356-461e-865a-489adfdeaa54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/e2ec54df-3eaa-41c3-b692-4b3a78dadbf3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/e2ec54df-3eaa-41c3-b692-4b3a78dadbf3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/c32ab34d-04e2-4371-bed2-4c10eaa72176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/c32ab34d-04e2-4371-bed2-4c10eaa72176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/a0d55ce8-653d-4140-b8ff-4c5e619be965</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/a0d55ce8-653d-4140-b8ff-4c5e619be965</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/1b33ef6e-6d92-4a4b-846c-4cfd299b9943</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/1b33ef6e-6d92-4a4b-846c-4cfd299b9943</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/01663c90-cfe4-4f9a-aff9-4de2d8dd6a1a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/01663c90-cfe4-4f9a-aff9-4de2d8dd6a1a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/cf7cbed9-a32e-4cc4-886c-4fad6c7849d9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/cf7cbed9-a32e-4cc4-886c-4fad6c7849d9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/5ca57362-ebeb-4f64-beba-50795ff65945</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/5ca57362-ebeb-4f64-beba-50795ff65945</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/9a4d1e62-1a54-46cf-aece-50cbe9d9f285</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/9a4d1e62-1a54-46cf-aece-50cbe9d9f285</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/1a97b77c-b4e1-4a7b-840a-52c99a102979</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/1a97b77c-b4e1-4a7b-840a-52c99a102979</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/a6c3b0a4-7efc-40a0-8aa5-52d6d6d9b52d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/a6c3b0a4-7efc-40a0-8aa5-52d6d6d9b52d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/79f38164-b067-442f-89bc-52d913041382</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/79f38164-b067-442f-89bc-52d913041382</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/8fac93a7-76b8-48a5-aa20-534c643e9b57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/8fac93a7-76b8-48a5-aa20-534c643e9b57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/ac9efa5e-fb74-4d7d-b438-543e0c1cbb78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/ac9efa5e-fb74-4d7d-b438-543e0c1cbb78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/caac47a8-26f0-4999-a4e1-5589bbb2a899</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/caac47a8-26f0-4999-a4e1-5589bbb2a899</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/36405db1-7e7f-4bae-9aec-564fb8bbf455</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/36405db1-7e7f-4bae-9aec-564fb8bbf455</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/70199161-5282-4bc9-83c7-56c077e86d61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/70199161-5282-4bc9-83c7-56c077e86d61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/8eb932de-59d0-43fb-a7df-57352b5e89e5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/8eb932de-59d0-43fb-a7df-57352b5e89e5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/dd7d3181-3d18-4090-9862-583fda0762e1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/dd7d3181-3d18-4090-9862-583fda0762e1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/c9755624-1005-4273-85c4-586af2f10fd2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/c9755624-1005-4273-85c4-586af2f10fd2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/b31c8573-64c8-4799-aeae-5ba8e2a21164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/b31c8573-64c8-4799-aeae-5ba8e2a21164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/a2d2efb7-81d5-48fd-8e58-5debb39c9878</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/a2d2efb7-81d5-48fd-8e58-5debb39c9878</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/5710a436-a02a-40cc-b8b0-5ed6259a4410</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/5710a436-a02a-40cc-b8b0-5ed6259a4410</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/d8eb17c4-b047-4b52-b1cd-600bad43ea54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/d8eb17c4-b047-4b52-b1cd-600bad43ea54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/a74b1689-528b-44ad-83cc-608c6af67ff5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/a74b1689-528b-44ad-83cc-608c6af67ff5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/0d3d5263-05f7-4b4d-afe9-6098adfbc27a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/0d3d5263-05f7-4b4d-afe9-6098adfbc27a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/725c4c17-7b20-4b87-b634-62ca45052cd8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/725c4c17-7b20-4b87-b634-62ca45052cd8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/0270efa0-8de7-4db2-9f96-63502f507c15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/0270efa0-8de7-4db2-9f96-63502f507c15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/47af65eb-61dd-4456-9ce3-654313e2c110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/47af65eb-61dd-4456-9ce3-654313e2c110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/7bed8b9b-5f59-4ed6-a066-654e1b499ea0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/7bed8b9b-5f59-4ed6-a066-654e1b499ea0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/fdd6caab-b9e1-4efb-8754-65e5181a9aba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/fdd6caab-b9e1-4efb-8754-65e5181a9aba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/e8580ccf-2416-464f-aa7a-66644d6a9f37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/e8580ccf-2416-464f-aa7a-66644d6a9f37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/3f8c9799-6902-409d-97a7-680133815a56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/3f8c9799-6902-409d-97a7-680133815a56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/4b9e2e11-5aa3-41a8-b92c-689734bca6a9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/4b9e2e11-5aa3-41a8-b92c-689734bca6a9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/e95fa910-a243-4645-8da6-6951346dd2f5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/e95fa910-a243-4645-8da6-6951346dd2f5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/38362946-c889-466f-8ea3-697309d54219</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/38362946-c889-466f-8ea3-697309d54219</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/e9a77e0c-3a2e-489a-a6fa-69a43efa884f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/e9a77e0c-3a2e-489a-a6fa-69a43efa884f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/1005be54-b336-4236-abbb-69bb9b13efa1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/1005be54-b336-4236-abbb-69bb9b13efa1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/b476b460-1add-4724-94a1-69d2e1207e45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/b476b460-1add-4724-94a1-69d2e1207e45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/d4f44df1-e553-4aab-bf56-6b8cb5bb192e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/d4f44df1-e553-4aab-bf56-6b8cb5bb192e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/5771ca2b-823a-4019-9d5a-6c8b6f6e87e6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/5771ca2b-823a-4019-9d5a-6c8b6f6e87e6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/8ee1d012-a62c-409d-b0b4-6df687001d8e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/8ee1d012-a62c-409d-b0b4-6df687001d8e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/00c0d89e-cbf0-4f4c-a471-70ae898729bf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/00c0d89e-cbf0-4f4c-a471-70ae898729bf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/2915dd17-d7c0-49b2-ab89-71425feef3a9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/2915dd17-d7c0-49b2-ab89-71425feef3a9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/562ec4aa-8c06-4c53-9a4b-7160a0c33be1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/562ec4aa-8c06-4c53-9a4b-7160a0c33be1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/f94a939c-2a5b-4bcd-849e-71d47ba2d462</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/f94a939c-2a5b-4bcd-849e-71d47ba2d462</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/fd0822d4-24dd-4635-9176-726e5a738980</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/fd0822d4-24dd-4635-9176-726e5a738980</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/0b589776-0007-4d55-8651-73dfaef63c77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/0b589776-0007-4d55-8651-73dfaef63c77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/71bddc8b-e853-4a68-88d2-74a051c9a8a7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/71bddc8b-e853-4a68-88d2-74a051c9a8a7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/65a28571-be7c-47e6-9d99-75a39e8c9d51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/65a28571-be7c-47e6-9d99-75a39e8c9d51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/f88f55d8-2226-42bf-9d14-77cac6996ff5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/f88f55d8-2226-42bf-9d14-77cac6996ff5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/d977e3d0-7c97-41c4-87bb-7802b94f5033</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/d977e3d0-7c97-41c4-87bb-7802b94f5033</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/3d6a193d-4987-4bd3-a2f5-7922917591f9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/3d6a193d-4987-4bd3-a2f5-7922917591f9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/a7916680-2b84-4b60-a745-7aa7506e7bc5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/a7916680-2b84-4b60-a745-7aa7506e7bc5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/93e0ed3c-0259-4749-bc8b-7ac5791bd932</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/93e0ed3c-0259-4749-bc8b-7ac5791bd932</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/f908f27d-fd9f-4d0b-b01e-7b3fedfd04f8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/f908f27d-fd9f-4d0b-b01e-7b3fedfd04f8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/fa551ff0-4349-4ac7-898c-7c0ae1f74cac</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/fa551ff0-4349-4ac7-898c-7c0ae1f74cac</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/e9d0e589-9b67-4683-b443-7d7a7f7cb039</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/e9d0e589-9b67-4683-b443-7d7a7f7cb039</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/1bb9a8b9-43a0-45ca-8a7a-7da84ec34142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/1bb9a8b9-43a0-45ca-8a7a-7da84ec34142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/4f4cd71d-001f-49ba-8a72-7dbf472b608d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/4f4cd71d-001f-49ba-8a72-7dbf472b608d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/b481036d-532d-4cb7-a4e3-7dd1507ec5ea</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/b481036d-532d-4cb7-a4e3-7dd1507ec5ea</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/8e0c58ce-45e2-4a2c-b9a1-7f7c3f76398b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/8e0c58ce-45e2-4a2c-b9a1-7f7c3f76398b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/e99af7a6-5b1d-4e21-bda2-8000b1327d46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/e99af7a6-5b1d-4e21-bda2-8000b1327d46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/5df0df08-1671-4949-9df2-801934b69b16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/5df0df08-1671-4949-9df2-801934b69b16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/f6dccb53-6ca4-4b63-9271-8131eef63dd3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/f6dccb53-6ca4-4b63-9271-8131eef63dd3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/2a63be27-1033-46ba-a6b3-816ac9572138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/2a63be27-1033-46ba-a6b3-816ac9572138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/694e0810-fadd-4d48-a8e0-82e33454afdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/694e0810-fadd-4d48-a8e0-82e33454afdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/efd87f81-ccf4-4ba7-849e-82e6f3b26892</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/efd87f81-ccf4-4ba7-849e-82e6f3b26892</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/cb723497-d938-4ec7-aefa-8406a244f6f5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/cb723497-d938-4ec7-aefa-8406a244f6f5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/44ccbe01-4f70-4181-a682-86b62c296cde</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/44ccbe01-4f70-4181-a682-86b62c296cde</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/0c67f265-a236-40b8-a532-86ddcad66a01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/0c67f265-a236-40b8-a532-86ddcad66a01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/e067f17a-440b-4c45-9ef5-88640e0cc861</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/e067f17a-440b-4c45-9ef5-88640e0cc861</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/15071ac3-3784-47c6-bd6f-88da4f835da7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/15071ac3-3784-47c6-bd6f-88da4f835da7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/59abc6e2-43ed-4950-bfd6-8a07027f20ed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/59abc6e2-43ed-4950-bfd6-8a07027f20ed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/924dcc9f-1fac-4487-a7c6-8aa6f3f55a6b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/924dcc9f-1fac-4487-a7c6-8aa6f3f55a6b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/16d8f6b8-3a47-428b-9964-8ba2a0c46e91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/16d8f6b8-3a47-428b-9964-8ba2a0c46e91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/95cacc42-d4b8-4fc7-ae2a-8ba8fbf64e1d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/95cacc42-d4b8-4fc7-ae2a-8ba8fbf64e1d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/6944ad5b-80d5-48c0-99d8-8bab6fb9183a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/6944ad5b-80d5-48c0-99d8-8bab6fb9183a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/d7c3d7ed-8652-436d-b37b-8c3f537040b0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/d7c3d7ed-8652-436d-b37b-8c3f537040b0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/4d3ab75e-f797-4d72-9ac3-8c655ca0715f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/4d3ab75e-f797-4d72-9ac3-8c655ca0715f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/b1c4defe-f11e-47b2-98ee-8f42e5e99e30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/b1c4defe-f11e-47b2-98ee-8f42e5e99e30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/b4bb1650-9deb-475c-939a-8f90a494448a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/b4bb1650-9deb-475c-939a-8f90a494448a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/00b58f7e-e8cf-43c3-af43-929a03934672</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/00b58f7e-e8cf-43c3-af43-929a03934672</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/c202245d-03a6-4a1e-aab3-9305cf0519ea</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/c202245d-03a6-4a1e-aab3-9305cf0519ea</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/3d58f301-8b74-41a2-a2aa-953790055c67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/3d58f301-8b74-41a2-a2aa-953790055c67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/15b7b93f-04e6-4a3b-baf9-95587677a3b0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/15b7b93f-04e6-4a3b-baf9-95587677a3b0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/ed1a8944-12e7-41c6-9f19-9a106c914e8f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/ed1a8944-12e7-41c6-9f19-9a106c914e8f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/a29139ac-7c76-4db2-a20d-9b58c6e82afd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/a29139ac-7c76-4db2-a20d-9b58c6e82afd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/ca472554-ba60-4c88-a125-9bdba1e7f292</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/ca472554-ba60-4c88-a125-9bdba1e7f292</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/2bfcde79-26be-4510-ab07-9d956cad37e5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/2bfcde79-26be-4510-ab07-9d956cad37e5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/7dcf43f8-74a2-4e42-9549-9dd5e3aba8a2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/7dcf43f8-74a2-4e42-9549-9dd5e3aba8a2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/84ef10b4-fda3-4699-98b2-a02ba0b3a3de</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/84ef10b4-fda3-4699-98b2-a02ba0b3a3de</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/1eff064f-d4bc-455a-842f-a09cc47ce950</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/1eff064f-d4bc-455a-842f-a09cc47ce950</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/ba63da66-579f-4df9-8e30-a205c4fccca1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/ba63da66-579f-4df9-8e30-a205c4fccca1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/73c4c64a-f4d3-420e-95be-a22f82a6af46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/73c4c64a-f4d3-420e-95be-a22f82a6af46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/738695e6-c82c-4681-9039-a840fe77e191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/738695e6-c82c-4681-9039-a840fe77e191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/d0e9c8b7-2b56-4e79-8774-a8bf21d6316c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/d0e9c8b7-2b56-4e79-8774-a8bf21d6316c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/7988b060-ee01-4477-b88e-a9cbc2a686a9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/7988b060-ee01-4477-b88e-a9cbc2a686a9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/c978ab3d-abc3-470f-b797-ab3924e9d576</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/c978ab3d-abc3-470f-b797-ab3924e9d576</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/4e29228e-bac8-498c-a540-ab7f0972e208</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/4e29228e-bac8-498c-a540-ab7f0972e208</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/f39fd5ba-e334-4b25-b4b1-ad57d76649f2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/f39fd5ba-e334-4b25-b4b1-ad57d76649f2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/00a1d8ef-0b9a-48e8-81ad-b079931b08a6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/00a1d8ef-0b9a-48e8-81ad-b079931b08a6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/46580365-2d13-45b5-8d78-b1a61cf455b9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/46580365-2d13-45b5-8d78-b1a61cf455b9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/1b421cbb-83c1-4349-a43b-b29eb24390b1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/1b421cbb-83c1-4349-a43b-b29eb24390b1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/0e971f8c-79be-4934-82fc-b4480a1f4425</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/0e971f8c-79be-4934-82fc-b4480a1f4425</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/4e9e092d-66bb-4886-aef3-b510cd0d2830</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/4e9e092d-66bb-4886-aef3-b510cd0d2830</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/08100ba3-2aaf-4b3a-aee4-b7118c3e4428</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/08100ba3-2aaf-4b3a-aee4-b7118c3e4428</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/ae6bfdc0-291e-42f4-810a-b927601a7226</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/ae6bfdc0-291e-42f4-810a-b927601a7226</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/79e7ba0a-574c-4f20-9785-ba0158b9b85f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/79e7ba0a-574c-4f20-9785-ba0158b9b85f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/2718da0f-0a5a-433e-8e2f-bb2c563498ba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/2718da0f-0a5a-433e-8e2f-bb2c563498ba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/b12fcaf2-d220-4a35-83b6-bba436f48236</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/b12fcaf2-d220-4a35-83b6-bba436f48236</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/8df1130e-2bea-4d95-94d6-bbbd0c810293</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/8df1130e-2bea-4d95-94d6-bbbd0c810293</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/f556d3e5-2b35-4050-abf9-bbc70129184e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/f556d3e5-2b35-4050-abf9-bbc70129184e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/880312ab-d8bb-4be1-95cd-bc764917b5bb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/880312ab-d8bb-4be1-95cd-bc764917b5bb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/b3bb5fb7-9030-4f7c-aa1a-bd32ab2d7904</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/b3bb5fb7-9030-4f7c-aa1a-bd32ab2d7904</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/0ba46ca9-4320-4bfe-afaa-bdb66e236224</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/0ba46ca9-4320-4bfe-afaa-bdb66e236224</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/b65a31d1-6cfd-4aab-aad9-bfc28cbbb7b4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/b65a31d1-6cfd-4aab-aad9-bfc28cbbb7b4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/41699cd1-2e23-47f0-ab16-bfd2c4f6914e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/41699cd1-2e23-47f0-ab16-bfd2c4f6914e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/3b523ca3-534c-473d-92ab-c0de3c68a57e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/3b523ca3-534c-473d-92ab-c0de3c68a57e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/ec7944c4-f977-4f3a-bfd9-c1d19aa4337e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/ec7944c4-f977-4f3a-bfd9-c1d19aa4337e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/5a62b830-3f8c-4eb7-8c00-c488b6d2200e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/5a62b830-3f8c-4eb7-8c00-c488b6d2200e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/26053a7d-7932-4750-988a-c528db723376</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/26053a7d-7932-4750-988a-c528db723376</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/d7dde4c1-7964-4711-9896-c60e21083ec5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/d7dde4c1-7964-4711-9896-c60e21083ec5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/84d2eb8c-ed91-416d-9f4e-c6815c90f0b4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/84d2eb8c-ed91-416d-9f4e-c6815c90f0b4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/faf05b58-9a2f-4739-a3a8-c8e500f90d78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/faf05b58-9a2f-4739-a3a8-c8e500f90d78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/824ab626-ae00-4b1f-b1ef-cacd52766b27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/824ab626-ae00-4b1f-b1ef-cacd52766b27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/25ae8368-075f-4fe1-a99f-cea8cddc7c28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/25ae8368-075f-4fe1-a99f-cea8cddc7c28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/72166ece-dada-460e-b257-cf3c29e25940</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/72166ece-dada-460e-b257-cf3c29e25940</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/8e702efe-dd71-4bce-9b34-cfa1b8a3e336</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/8e702efe-dd71-4bce-9b34-cfa1b8a3e336</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/69e919d4-d951-4951-b44a-cfc0e997cd23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/69e919d4-d951-4951-b44a-cfc0e997cd23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/4f002dc1-d4a9-4451-a3d7-d04fae8bef87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/4f002dc1-d4a9-4451-a3d7-d04fae8bef87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/d9081464-b9aa-40b1-b5a5-d0f582726f5f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/d9081464-b9aa-40b1-b5a5-d0f582726f5f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/850adbdc-b42c-44dd-9560-d169906e1f40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/850adbdc-b42c-44dd-9560-d169906e1f40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/98b59be0-b42b-4be8-84e2-d1fee3fb0fea</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/98b59be0-b42b-4be8-84e2-d1fee3fb0fea</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/2e6a7b12-65ea-41ac-92f0-d2cb91f73b92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/2e6a7b12-65ea-41ac-92f0-d2cb91f73b92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/41712487-2d20-4d50-b411-d36aec0618dc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/41712487-2d20-4d50-b411-d36aec0618dc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/647dd829-40f1-4a87-a742-d4422a1b24ac</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/647dd829-40f1-4a87-a742-d4422a1b24ac</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/86ee6059-a684-4030-ba22-d57347894184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/86ee6059-a684-4030-ba22-d57347894184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/65adc49a-418d-4a51-80d7-d7969703d965</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/65adc49a-418d-4a51-80d7-d7969703d965</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/22e76e7c-f3ae-452c-a485-d7a60410bbd7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/22e76e7c-f3ae-452c-a485-d7a60410bbd7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/f5b40266-07b9-40a3-86c7-d8a6d7bab1d5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/f5b40266-07b9-40a3-86c7-d8a6d7bab1d5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/f8cb3f88-2fa1-4313-a9ed-d90ac2991a5c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/f8cb3f88-2fa1-4313-a9ed-d90ac2991a5c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/9526c658-b0bd-4014-999a-da0be5fcbfee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/9526c658-b0bd-4014-999a-da0be5fcbfee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/9b2ae001-926a-4aca-bcf5-daa7ad644cad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/9b2ae001-926a-4aca-bcf5-daa7ad644cad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/5428fc62-cafc-4124-8553-daedf24cdbf0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/5428fc62-cafc-4124-8553-daedf24cdbf0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/7933f063-450d-4bac-b841-db416d33d4f0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/7933f063-450d-4bac-b841-db416d33d4f0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/db9364a5-fa04-49ca-bd04-dc8326199017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/db9364a5-fa04-49ca-bd04-dc8326199017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/71125c2d-2fa6-4162-aa63-dcc2341af483</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/71125c2d-2fa6-4162-aa63-dcc2341af483</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/21083e34-493e-48d0-baac-de4d1dae27f1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/21083e34-493e-48d0-baac-de4d1dae27f1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/0ef44d2b-3324-4e52-9c7b-defb2f6c47b0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/0ef44d2b-3324-4e52-9c7b-defb2f6c47b0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/f47d5325-9422-48bb-ba73-e06505d42dbd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/f47d5325-9422-48bb-ba73-e06505d42dbd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/4881db5b-06ab-46b6-8d8b-e06d181139a4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/4881db5b-06ab-46b6-8d8b-e06d181139a4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/7262c1d7-cdc5-4312-b193-e0fb1013282f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/7262c1d7-cdc5-4312-b193-e0fb1013282f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/e3579aa1-4b58-4a96-923d-e0fde8282302</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/e3579aa1-4b58-4a96-923d-e0fde8282302</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/f0ac93c7-e674-4bdc-b29f-e161a53b8d37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/f0ac93c7-e674-4bdc-b29f-e161a53b8d37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/59629af6-d470-426a-ae94-e43c5d2f13cc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/59629af6-d470-426a-ae94-e43c5d2f13cc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/196e89de-98ef-4625-a60c-e9ced38b67ae</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/196e89de-98ef-4625-a60c-e9ced38b67ae</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/516837e5-4920-4509-acc3-ea52a79a4afc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/516837e5-4920-4509-acc3-ea52a79a4afc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/fd3879f5-f02c-43ce-a5e2-ec2041dc431a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/fd3879f5-f02c-43ce-a5e2-ec2041dc431a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/c4cbfcc5-ca81-4564-8fd1-ecaa45c97416</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/c4cbfcc5-ca81-4564-8fd1-ecaa45c97416</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/301fdf40-5fa2-4795-815c-ecd8c3a62a58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/301fdf40-5fa2-4795-815c-ecd8c3a62a58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/54bbebc5-7ee9-4c89-be73-ed9287aa46f2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/54bbebc5-7ee9-4c89-be73-ed9287aa46f2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/82f1bac8-80bc-4e50-8d7c-edd73759750d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/82f1bac8-80bc-4e50-8d7c-edd73759750d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/0245cefd-36a4-4c27-820a-ee337f204825</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/0245cefd-36a4-4c27-820a-ee337f204825</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/17f43f1e-7f56-4658-9aee-eef79a378c06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/17f43f1e-7f56-4658-9aee-eef79a378c06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/0ef6949e-1ed5-47ee-b254-ef382915d040</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/0ef6949e-1ed5-47ee-b254-ef382915d040</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/c80144da-2ddb-419b-9f2c-f081c6bdd23b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/c80144da-2ddb-419b-9f2c-f081c6bdd23b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/dc2bc32e-3708-4bc8-8437-f20e0745d1ab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/dc2bc32e-3708-4bc8-8437-f20e0745d1ab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/bc902dc2-0f90-43c3-8276-f36f1495ae1d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/bc902dc2-0f90-43c3-8276-f36f1495ae1d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/d6048864-5b6a-41ce-88cb-f37834317135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/d6048864-5b6a-41ce-88cb-f37834317135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/123e76ae-c085-401d-a716-f3bf212b377c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/123e76ae-c085-401d-a716-f3bf212b377c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/68159952-c67c-49e7-b52c-f665f164fad5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/68159952-c67c-49e7-b52c-f665f164fad5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/9f66d26b-ed09-4617-b0ea-f80ab11448b5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/9f66d26b-ed09-4617-b0ea-f80ab11448b5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/e549996b-5126-4f50-beae-f88f60777acd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/e549996b-5126-4f50-beae-f88f60777acd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/5f2ef075-c284-4b3b-be7e-f967bac12070</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/5f2ef075-c284-4b3b-be7e-f967bac12070</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/eeb7d1b3-3261-49a1-8b60-fb45d49696e0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/eeb7d1b3-3261-49a1-8b60-fb45d49696e0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/202d6a6f-721f-4230-bb27-fd0b3458bb3a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/202d6a6f-721f-4230-bb27-fd0b3458bb3a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/d74ae148-2600-46b4-b787-fd300afa1143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/d74ae148-2600-46b4-b787-fd300afa1143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/47602fd1-9660-409e-8856-fd631e0a9e3f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/47602fd1-9660-409e-8856-fd631e0a9e3f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/90be28b0-c414-4c75-8a04-fdaf2d6d108d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/90be28b0-c414-4c75-8a04-fdaf2d6d108d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/802c0bf3-5397-4478-8d7e-fdb83de411dc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/802c0bf3-5397-4478-8d7e-fdb83de411dc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/73678e35-a507-45c2-af60-fe4dd59cba44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/73678e35-a507-45c2-af60-fe4dd59cba44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/cf3b55cf-a0be-4852-b0ce-ff3080aaec69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/cf3b55cf-a0be-4852-b0ce-ff3080aaec69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/5dfe4f16-4ceb-4499-b8eb-ff599acf7593</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/5dfe4f16-4ceb-4499-b8eb-ff599acf7593</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/4bdc59a1-f421-4972-b442-ff6a4c503784</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/4bdc59a1-f421-4972-b442-ff6a4c503784</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/c9cbea82-bb3a-4b16-806f-ff94c0f292c1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/c9cbea82-bb3a-4b16-806f-ff94c0f292c1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/ee338e47-7759-4756-ba17-ffb031d960f5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/ee338e47-7759-4756-ba17-ffb031d960f5</x:t>
+  </x:si>
   <x:si>
     <x:t>DeleteUrl</x:t>
   </x:si>
@@ -511,17 +1984,23 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:W1"/>
+  <x:dimension ref="A1:W246"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="C20" sqref="C20"/>
-    </x:sheetView>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:cols>
+    <x:col min="1" max="1" width="97.21875" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="82.21875" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <x:c r="A1" s="1"/>
-      <x:c r="B1" s="1"/>
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
       <x:c r="C1" s="1"/>
       <x:c r="D1" s="1"/>
       <x:c r="E1" s="1"/>
@@ -544,6 +2023,1963 @@
       <x:c r="V1" s="1"/>
       <x:c r="W1" s="1"/>
     </x:row>
+    <x:row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A5" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A6" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A7" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A8" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A9" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A10" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A11" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A12" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A13" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A14" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A15" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A16" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A17" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A18" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A19" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A20" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A21" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A22" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A23" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A24" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A25" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A26" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A27" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A28" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A29" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A30" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A31" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A32" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A33" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A34" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A35" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A36" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A37" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A38" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A39" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A40" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A41" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A42" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A43" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A44" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A45" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A46" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A47" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A48" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A49" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A50" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A51" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A52" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A53" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A54" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A55" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A56" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A57" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A58" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A59" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A60" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A61" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A62" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B62" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A63" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A64" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B64" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A65" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B65" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A66" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="B66" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A67" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B67" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A68" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="B68" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A69" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B69" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A70" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B70" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A71" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="B71" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A72" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="B72" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A73" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B73" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A74" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="B74" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A75" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B75" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A76" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B76" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A77" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="B77" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A78" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B78" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A79" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="B79" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A80" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="B80" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A81" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="B81" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A82" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="B82" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A83" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="B83" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A84" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="B84" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A85" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="B85" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A86" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="B86" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A87" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="B87" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A88" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="B88" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A89" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="B89" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A90" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="B90" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A91" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="B91" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A92" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B92" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A93" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="B93" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A94" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="B94" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A95" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="B95" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A96" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="B96" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A97" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="B97" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A98" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="B98" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A99" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="B99" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A100" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="B100" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A101" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="B101" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A102" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="B102" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A103" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="B103" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A104" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="B104" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A105" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="B105" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A106" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="B106" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A107" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="B107" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A108" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="B108" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A109" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="B109" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A110" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="B110" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A111" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="B111" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A112" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="B112" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A113" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="B113" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A114" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="B114" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A115" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="B115" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A116" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="B116" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A117" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="B117" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A118" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="B118" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A119" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="B119" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A120" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="B120" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A121" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="B121" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A122" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="B122" s="0" t="s">
+        <x:v>243</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A123" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="B123" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A124" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="B124" s="0" t="s">
+        <x:v>247</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A125" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="B125" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A126" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="B126" s="0" t="s">
+        <x:v>251</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A127" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="B127" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A128" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="B128" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A129" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="B129" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A130" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="B130" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A131" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="B131" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A132" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="B132" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A133" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="B133" s="0" t="s">
+        <x:v>265</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A134" s="0" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="B134" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A135" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="B135" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A136" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="B136" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A137" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="B137" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A138" s="0" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="B138" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="139" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A139" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="B139" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="140" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A140" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="B140" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A141" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="B141" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A142" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="B142" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="143" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A143" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="B143" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="144" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A144" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="B144" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="145" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A145" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="B145" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="146" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A146" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="B146" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="147" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A147" s="0" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="B147" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="148" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A148" s="0" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="B148" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="149" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A149" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="B149" s="0" t="s">
+        <x:v>297</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="150" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A150" s="0" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="B150" s="0" t="s">
+        <x:v>299</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="151" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A151" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="B151" s="0" t="s">
+        <x:v>301</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="152" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A152" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="B152" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="153" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A153" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="B153" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="154" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A154" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="B154" s="0" t="s">
+        <x:v>307</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="155" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A155" s="0" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="B155" s="0" t="s">
+        <x:v>309</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="156" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A156" s="0" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="B156" s="0" t="s">
+        <x:v>311</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="157" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A157" s="0" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="B157" s="0" t="s">
+        <x:v>313</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="158" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A158" s="0" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="B158" s="0" t="s">
+        <x:v>315</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="159" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A159" s="0" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="B159" s="0" t="s">
+        <x:v>317</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="160" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A160" s="0" t="s">
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="B160" s="0" t="s">
+        <x:v>319</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="161" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A161" s="0" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="B161" s="0" t="s">
+        <x:v>321</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="162" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A162" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="B162" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="163" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A163" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="B163" s="0" t="s">
+        <x:v>325</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="164" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A164" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="B164" s="0" t="s">
+        <x:v>327</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="165" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A165" s="0" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="B165" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="166" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A166" s="0" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="B166" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="167" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A167" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c r="B167" s="0" t="s">
+        <x:v>333</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="168" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A168" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="B168" s="0" t="s">
+        <x:v>335</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="169" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A169" s="0" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="B169" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="170" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A170" s="0" t="s">
+        <x:v>338</x:v>
+      </x:c>
+      <x:c r="B170" s="0" t="s">
+        <x:v>339</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="171" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A171" s="0" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="B171" s="0" t="s">
+        <x:v>341</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="172" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A172" s="0" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="B172" s="0" t="s">
+        <x:v>343</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="173" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A173" s="0" t="s">
+        <x:v>344</x:v>
+      </x:c>
+      <x:c r="B173" s="0" t="s">
+        <x:v>345</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="174" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A174" s="0" t="s">
+        <x:v>346</x:v>
+      </x:c>
+      <x:c r="B174" s="0" t="s">
+        <x:v>347</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="175" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A175" s="0" t="s">
+        <x:v>348</x:v>
+      </x:c>
+      <x:c r="B175" s="0" t="s">
+        <x:v>349</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="176" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A176" s="0" t="s">
+        <x:v>350</x:v>
+      </x:c>
+      <x:c r="B176" s="0" t="s">
+        <x:v>351</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="177" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A177" s="0" t="s">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="B177" s="0" t="s">
+        <x:v>353</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="178" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A178" s="0" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="B178" s="0" t="s">
+        <x:v>355</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="179" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A179" s="0" t="s">
+        <x:v>356</x:v>
+      </x:c>
+      <x:c r="B179" s="0" t="s">
+        <x:v>357</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="180" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A180" s="0" t="s">
+        <x:v>358</x:v>
+      </x:c>
+      <x:c r="B180" s="0" t="s">
+        <x:v>359</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="181" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A181" s="0" t="s">
+        <x:v>360</x:v>
+      </x:c>
+      <x:c r="B181" s="0" t="s">
+        <x:v>361</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="182" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A182" s="0" t="s">
+        <x:v>362</x:v>
+      </x:c>
+      <x:c r="B182" s="0" t="s">
+        <x:v>363</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="183" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A183" s="0" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="B183" s="0" t="s">
+        <x:v>365</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="184" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A184" s="0" t="s">
+        <x:v>366</x:v>
+      </x:c>
+      <x:c r="B184" s="0" t="s">
+        <x:v>367</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="185" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A185" s="0" t="s">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c r="B185" s="0" t="s">
+        <x:v>369</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="186" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A186" s="0" t="s">
+        <x:v>370</x:v>
+      </x:c>
+      <x:c r="B186" s="0" t="s">
+        <x:v>371</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="187" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A187" s="0" t="s">
+        <x:v>372</x:v>
+      </x:c>
+      <x:c r="B187" s="0" t="s">
+        <x:v>373</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="188" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A188" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="B188" s="0" t="s">
+        <x:v>375</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="189" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A189" s="0" t="s">
+        <x:v>376</x:v>
+      </x:c>
+      <x:c r="B189" s="0" t="s">
+        <x:v>377</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="190" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A190" s="0" t="s">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="B190" s="0" t="s">
+        <x:v>379</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="191" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A191" s="0" t="s">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="B191" s="0" t="s">
+        <x:v>381</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="192" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A192" s="0" t="s">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c r="B192" s="0" t="s">
+        <x:v>383</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="193" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A193" s="0" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="B193" s="0" t="s">
+        <x:v>385</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="194" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A194" s="0" t="s">
+        <x:v>386</x:v>
+      </x:c>
+      <x:c r="B194" s="0" t="s">
+        <x:v>387</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="195" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A195" s="0" t="s">
+        <x:v>388</x:v>
+      </x:c>
+      <x:c r="B195" s="0" t="s">
+        <x:v>389</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="196" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A196" s="0" t="s">
+        <x:v>390</x:v>
+      </x:c>
+      <x:c r="B196" s="0" t="s">
+        <x:v>391</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="197" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A197" s="0" t="s">
+        <x:v>392</x:v>
+      </x:c>
+      <x:c r="B197" s="0" t="s">
+        <x:v>393</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="198" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A198" s="0" t="s">
+        <x:v>394</x:v>
+      </x:c>
+      <x:c r="B198" s="0" t="s">
+        <x:v>395</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="199" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A199" s="0" t="s">
+        <x:v>396</x:v>
+      </x:c>
+      <x:c r="B199" s="0" t="s">
+        <x:v>397</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="200" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A200" s="0" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="B200" s="0" t="s">
+        <x:v>399</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="201" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A201" s="0" t="s">
+        <x:v>400</x:v>
+      </x:c>
+      <x:c r="B201" s="0" t="s">
+        <x:v>401</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="202" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A202" s="0" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B202" s="0" t="s">
+        <x:v>403</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="203" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A203" s="0" t="s">
+        <x:v>404</x:v>
+      </x:c>
+      <x:c r="B203" s="0" t="s">
+        <x:v>405</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="204" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A204" s="0" t="s">
+        <x:v>406</x:v>
+      </x:c>
+      <x:c r="B204" s="0" t="s">
+        <x:v>407</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="205" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A205" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+      <x:c r="B205" s="0" t="s">
+        <x:v>409</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="206" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A206" s="0" t="s">
+        <x:v>410</x:v>
+      </x:c>
+      <x:c r="B206" s="0" t="s">
+        <x:v>411</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="207" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A207" s="0" t="s">
+        <x:v>412</x:v>
+      </x:c>
+      <x:c r="B207" s="0" t="s">
+        <x:v>413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="208" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A208" s="0" t="s">
+        <x:v>414</x:v>
+      </x:c>
+      <x:c r="B208" s="0" t="s">
+        <x:v>415</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="209" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A209" s="0" t="s">
+        <x:v>416</x:v>
+      </x:c>
+      <x:c r="B209" s="0" t="s">
+        <x:v>417</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="210" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A210" s="0" t="s">
+        <x:v>418</x:v>
+      </x:c>
+      <x:c r="B210" s="0" t="s">
+        <x:v>419</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="211" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A211" s="0" t="s">
+        <x:v>420</x:v>
+      </x:c>
+      <x:c r="B211" s="0" t="s">
+        <x:v>421</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="212" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A212" s="0" t="s">
+        <x:v>422</x:v>
+      </x:c>
+      <x:c r="B212" s="0" t="s">
+        <x:v>423</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="213" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A213" s="0" t="s">
+        <x:v>424</x:v>
+      </x:c>
+      <x:c r="B213" s="0" t="s">
+        <x:v>425</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="214" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A214" s="0" t="s">
+        <x:v>426</x:v>
+      </x:c>
+      <x:c r="B214" s="0" t="s">
+        <x:v>427</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="215" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A215" s="0" t="s">
+        <x:v>428</x:v>
+      </x:c>
+      <x:c r="B215" s="0" t="s">
+        <x:v>429</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="216" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A216" s="0" t="s">
+        <x:v>430</x:v>
+      </x:c>
+      <x:c r="B216" s="0" t="s">
+        <x:v>431</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="217" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A217" s="0" t="s">
+        <x:v>432</x:v>
+      </x:c>
+      <x:c r="B217" s="0" t="s">
+        <x:v>433</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="218" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A218" s="0" t="s">
+        <x:v>434</x:v>
+      </x:c>
+      <x:c r="B218" s="0" t="s">
+        <x:v>435</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="219" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A219" s="0" t="s">
+        <x:v>436</x:v>
+      </x:c>
+      <x:c r="B219" s="0" t="s">
+        <x:v>437</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="220" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A220" s="0" t="s">
+        <x:v>438</x:v>
+      </x:c>
+      <x:c r="B220" s="0" t="s">
+        <x:v>439</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="221" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A221" s="0" t="s">
+        <x:v>440</x:v>
+      </x:c>
+      <x:c r="B221" s="0" t="s">
+        <x:v>441</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="222" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A222" s="0" t="s">
+        <x:v>442</x:v>
+      </x:c>
+      <x:c r="B222" s="0" t="s">
+        <x:v>443</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="223" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A223" s="0" t="s">
+        <x:v>444</x:v>
+      </x:c>
+      <x:c r="B223" s="0" t="s">
+        <x:v>445</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="224" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A224" s="0" t="s">
+        <x:v>446</x:v>
+      </x:c>
+      <x:c r="B224" s="0" t="s">
+        <x:v>447</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="225" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A225" s="0" t="s">
+        <x:v>448</x:v>
+      </x:c>
+      <x:c r="B225" s="0" t="s">
+        <x:v>449</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="226" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A226" s="0" t="s">
+        <x:v>450</x:v>
+      </x:c>
+      <x:c r="B226" s="0" t="s">
+        <x:v>451</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="227" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A227" s="0" t="s">
+        <x:v>452</x:v>
+      </x:c>
+      <x:c r="B227" s="0" t="s">
+        <x:v>453</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="228" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A228" s="0" t="s">
+        <x:v>454</x:v>
+      </x:c>
+      <x:c r="B228" s="0" t="s">
+        <x:v>455</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="229" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A229" s="0" t="s">
+        <x:v>456</x:v>
+      </x:c>
+      <x:c r="B229" s="0" t="s">
+        <x:v>457</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="230" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A230" s="0" t="s">
+        <x:v>458</x:v>
+      </x:c>
+      <x:c r="B230" s="0" t="s">
+        <x:v>459</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="231" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A231" s="0" t="s">
+        <x:v>460</x:v>
+      </x:c>
+      <x:c r="B231" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="232" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A232" s="0" t="s">
+        <x:v>462</x:v>
+      </x:c>
+      <x:c r="B232" s="0" t="s">
+        <x:v>463</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="233" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A233" s="0" t="s">
+        <x:v>464</x:v>
+      </x:c>
+      <x:c r="B233" s="0" t="s">
+        <x:v>465</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="234" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A234" s="0" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="B234" s="0" t="s">
+        <x:v>467</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="235" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A235" s="0" t="s">
+        <x:v>468</x:v>
+      </x:c>
+      <x:c r="B235" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="236" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A236" s="0" t="s">
+        <x:v>470</x:v>
+      </x:c>
+      <x:c r="B236" s="0" t="s">
+        <x:v>471</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="237" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A237" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="B237" s="0" t="s">
+        <x:v>473</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="238" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A238" s="0" t="s">
+        <x:v>474</x:v>
+      </x:c>
+      <x:c r="B238" s="0" t="s">
+        <x:v>475</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="239" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A239" s="0" t="s">
+        <x:v>476</x:v>
+      </x:c>
+      <x:c r="B239" s="0" t="s">
+        <x:v>477</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="240" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A240" s="0" t="s">
+        <x:v>478</x:v>
+      </x:c>
+      <x:c r="B240" s="0" t="s">
+        <x:v>479</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="241" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A241" s="0" t="s">
+        <x:v>480</x:v>
+      </x:c>
+      <x:c r="B241" s="0" t="s">
+        <x:v>481</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="242" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A242" s="0" t="s">
+        <x:v>482</x:v>
+      </x:c>
+      <x:c r="B242" s="0" t="s">
+        <x:v>483</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="243" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A243" s="0" t="s">
+        <x:v>484</x:v>
+      </x:c>
+      <x:c r="B243" s="0" t="s">
+        <x:v>485</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="244" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A244" s="0" t="s">
+        <x:v>486</x:v>
+      </x:c>
+      <x:c r="B244" s="0" t="s">
+        <x:v>487</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="245" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A245" s="0" t="s">
+        <x:v>488</x:v>
+      </x:c>
+      <x:c r="B245" s="0" t="s">
+        <x:v>489</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="246" spans="1:23" x14ac:dyDescent="0.3">
+      <x:c r="A246" s="0" t="s">
+        <x:v>490</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -560,8 +3996,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:AG27"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A27" sqref="A27 A1:A27"/>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="A30" sqref="A30"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,7 +4008,7 @@
     <x:row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <x:c r="A1" s="1"/>
       <x:c r="B1" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="C1" s="1"/>
       <x:c r="D1" s="1"/>
@@ -608,132 +4044,132 @@
     </x:row>
     <x:row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <x:c r="B2" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>492</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <x:c r="B3" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>493</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <x:c r="B4" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>494</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <x:c r="B5" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>495</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <x:c r="B6" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>496</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <x:c r="B7" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>497</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <x:c r="B8" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>498</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <x:c r="B9" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>499</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <x:c r="B10" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>500</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <x:c r="B11" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>501</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <x:c r="B12" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>502</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <x:c r="B13" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>503</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <x:c r="B14" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>504</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <x:c r="B15" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>505</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <x:c r="B16" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>506</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <x:c r="B17" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>507</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <x:c r="B18" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>508</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <x:c r="B19" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>509</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <x:c r="B20" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>510</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <x:c r="B21" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>511</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <x:c r="B22" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>512</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <x:c r="B23" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>513</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <x:c r="B24" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>514</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <x:c r="B25" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>515</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <x:c r="B26" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>516</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <x:c r="B27" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>516</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/CRUD.xlsx
+++ b/CRUD.xlsx
@@ -43,7 +43,7 @@
     <x:t>EditUrl</x:t>
   </x:si>
   <x:si>
-    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/f7ee3201-cbf0-4b00-bfdc-ee37493b4955</x:t>
+    <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Delete/9db933bb-de82-46b0-9087-b95a00c57214</x:t>
   </x:si>
   <x:si>
     <x:t>https://nwutechtrendstelemetryportalmvc.azurewebsites.net/Clients/Edit/741ee2d4-354a-49c1-a6a7-00af4e266121</x:t>
